--- a/EDA/data/Salario medio anual por grupos de ocupación y periodo..xlsx
+++ b/EDA/data/Salario medio anual por grupos de ocupación y periodo..xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -31,40 +31,10 @@
     <t xml:space="preserve">Mujeres</t>
   </si>
   <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">2016</t>
   </si>
   <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
     <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
   </si>
   <si>
     <t xml:space="preserve">Total </t>
@@ -134,6 +104,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -345,11 +316,11 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="2" style="0" width="24.61"/>
@@ -392,82 +363,82 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>2014</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>2011</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>2010</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>2009</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>2014</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>14</v>
+      <c r="X2" s="3" t="n">
+        <v>2010</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>2009</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>27642.5</v>
@@ -544,7 +515,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>21265.6</v>
@@ -621,7 +592,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>21182.1</v>
@@ -698,7 +669,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>37664.4</v>
@@ -775,7 +746,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>31425.5</v>
@@ -852,7 +823,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>61698.2</v>
@@ -929,7 +900,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>26465.1</v>
@@ -1006,7 +977,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>19279.7</v>
@@ -1083,7 +1054,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>32611.2</v>
@@ -1160,7 +1131,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>41735.7</v>
@@ -1237,7 +1208,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>18248.1</v>
@@ -1314,7 +1285,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>22442</v>
@@ -1391,7 +1362,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>21281.8</v>
@@ -1468,7 +1439,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>27884.5</v>
@@ -1545,7 +1516,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>24104.1</v>
@@ -1622,7 +1593,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>17159.2</v>
@@ -1699,7 +1670,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>22334.7</v>
@@ -1744,34 +1715,34 @@
         <v>-16531.7</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="W19" s="4" t="n">
         <v>-16288.3</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
